--- a/duration_carteira/curvadi_1902.xlsx
+++ b/duration_carteira/curvadi_1902.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GabrielMariano\Documents\Projetos\3.18kg\scrap_di_futuro\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GabrielMariano\Documents\Projetos\3.18kg\duration_carteira\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A5BB321-01BA-4C42-A67E-41C8BBABE1C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C76DF5B-53B3-41DB-B00B-5B50EEAB57F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="1770" windowWidth="29040" windowHeight="15720" xr2:uid="{7F5311F9-5E64-4258-BA24-6D93180628C0}"/>
   </bookViews>
@@ -38,10 +38,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>Dias Corridos</t>
+    <t>tenor</t>
   </si>
   <si>
-    <t>DI x pré</t>
+    <t>bid_yield</t>
   </si>
 </sst>
 </file>
@@ -511,15 +511,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{511055ED-1991-4D32-9B04-AF337E57A857}">
-  <dimension ref="A1:C250"/>
+  <dimension ref="A1:C251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection sqref="A1:B250"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -541,16 +542,16 @@
     </row>
     <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1">
-        <v>13.15</v>
+        <v>13.16</v>
       </c>
       <c r="C3" s="6"/>
     </row>
     <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1">
         <v>13.16</v>
@@ -559,7 +560,7 @@
     </row>
     <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1">
         <v>13.16</v>
@@ -568,46 +569,46 @@
     </row>
     <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1">
-        <v>13.16</v>
+        <v>13.21</v>
       </c>
       <c r="C6" s="6"/>
     </row>
     <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B7" s="1">
-        <v>13.16</v>
+        <v>13.35</v>
       </c>
       <c r="C7" s="6"/>
     </row>
     <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" s="1">
-        <v>13.32</v>
+        <v>13.37</v>
       </c>
       <c r="C8" s="6"/>
     </row>
     <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B9" s="1">
-        <v>13.36</v>
+        <v>13.38</v>
       </c>
       <c r="C9" s="6"/>
     </row>
     <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B10" s="1">
-        <v>13.37</v>
+        <v>13.41</v>
       </c>
       <c r="C10" s="6"/>
     </row>
@@ -616,16 +617,16 @@
         <v>29</v>
       </c>
       <c r="B11" s="1">
-        <v>13.41</v>
+        <v>13.42</v>
       </c>
       <c r="C11" s="6"/>
     </row>
     <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B12" s="1">
-        <v>13.41</v>
+        <v>13.43</v>
       </c>
       <c r="C12" s="6"/>
     </row>
@@ -634,31 +635,31 @@
         <v>33</v>
       </c>
       <c r="B13" s="1">
-        <v>13.42</v>
+        <v>13.44</v>
       </c>
       <c r="C13" s="6"/>
     </row>
     <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B14" s="1">
-        <v>13.45</v>
+        <v>13.46</v>
       </c>
       <c r="C14" s="6"/>
     </row>
     <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B15" s="1">
-        <v>13.45</v>
+        <v>13.46</v>
       </c>
       <c r="C15" s="6"/>
     </row>
     <row r="16" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B16" s="1">
         <v>13.46</v>
@@ -667,73 +668,73 @@
     </row>
     <row r="17" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B17" s="1">
-        <v>13.65</v>
+        <v>13.66</v>
       </c>
       <c r="C17" s="6"/>
     </row>
     <row r="18" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B18" s="1">
-        <v>13.67</v>
+        <v>13.68</v>
       </c>
       <c r="C18" s="6"/>
     </row>
     <row r="19" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B19" s="1">
-        <v>13.68</v>
+        <v>13.69</v>
       </c>
       <c r="C19" s="6"/>
     </row>
     <row r="20" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B20" s="1">
-        <v>13.69</v>
+        <v>13.7</v>
       </c>
       <c r="C20" s="6"/>
     </row>
     <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B21" s="1">
-        <v>13.75</v>
+        <v>13.76</v>
       </c>
       <c r="C21" s="6"/>
     </row>
     <row r="22" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B22" s="1">
-        <v>13.76</v>
+        <v>13.77</v>
       </c>
       <c r="C22" s="6"/>
     </row>
     <row r="23" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B23" s="1">
-        <v>13.77</v>
+        <v>13.78</v>
       </c>
       <c r="C23" s="6"/>
     </row>
     <row r="24" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B24" s="1">
-        <v>13.89</v>
+        <v>13.9</v>
       </c>
       <c r="C24" s="6"/>
     </row>
@@ -742,76 +743,76 @@
         <v>90</v>
       </c>
       <c r="B25" s="1">
-        <v>13.92</v>
+        <v>13.94</v>
       </c>
       <c r="C25" s="6"/>
     </row>
     <row r="26" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B26" s="1">
-        <v>13.94</v>
+        <v>13.95</v>
       </c>
       <c r="C26" s="6"/>
     </row>
     <row r="27" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B27" s="1">
-        <v>13.99</v>
+        <v>14</v>
       </c>
       <c r="C27" s="6"/>
     </row>
     <row r="28" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B28" s="1">
-        <v>14</v>
+        <v>14.01</v>
       </c>
       <c r="C28" s="6"/>
     </row>
     <row r="29" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B29" s="1">
-        <v>14.08</v>
+        <v>14.09</v>
       </c>
       <c r="C29" s="6"/>
     </row>
     <row r="30" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B30" s="1">
-        <v>14.09</v>
+        <v>14.1</v>
       </c>
       <c r="C30" s="6"/>
     </row>
     <row r="31" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="5">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B31" s="1">
-        <v>14.1</v>
+        <v>14.11</v>
       </c>
       <c r="C31" s="6"/>
     </row>
     <row r="32" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="5">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B32" s="1">
-        <v>14.11</v>
+        <v>14.12</v>
       </c>
       <c r="C32" s="6"/>
     </row>
     <row r="33" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="5">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B33" s="1">
         <v>14.15</v>
@@ -820,16 +821,16 @@
     </row>
     <row r="34" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="5">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B34" s="1">
-        <v>14.15</v>
+        <v>14.16</v>
       </c>
       <c r="C34" s="6"/>
     </row>
     <row r="35" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="5">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B35" s="1">
         <v>14.16</v>
@@ -838,7 +839,7 @@
     </row>
     <row r="36" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="5">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B36" s="1">
         <v>14.23</v>
@@ -847,7 +848,7 @@
     </row>
     <row r="37" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="5">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B37" s="1">
         <v>14.26</v>
@@ -856,7 +857,7 @@
     </row>
     <row r="38" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="5">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B38" s="1">
         <v>14.27</v>
@@ -865,46 +866,46 @@
     </row>
     <row r="39" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="5">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B39" s="1">
-        <v>14.3</v>
+        <v>14.29</v>
       </c>
       <c r="C39" s="6"/>
     </row>
     <row r="40" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="5">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B40" s="1">
-        <v>14.31</v>
+        <v>14.3</v>
       </c>
       <c r="C40" s="6"/>
     </row>
     <row r="41" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="5">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B41" s="1">
-        <v>14.31</v>
+        <v>14.3</v>
       </c>
       <c r="C41" s="6"/>
     </row>
     <row r="42" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="5">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B42" s="1">
-        <v>14.35</v>
+        <v>14.34</v>
       </c>
       <c r="C42" s="6"/>
     </row>
     <row r="43" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="5">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B43" s="1">
-        <v>14.36</v>
+        <v>14.35</v>
       </c>
       <c r="C43" s="6"/>
     </row>
@@ -913,43 +914,43 @@
         <v>180</v>
       </c>
       <c r="B44" s="1">
-        <v>14.37</v>
+        <v>14.36</v>
       </c>
       <c r="C44" s="6"/>
     </row>
     <row r="45" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="5">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B45" s="1">
-        <v>14.4</v>
+        <v>14.39</v>
       </c>
       <c r="C45" s="6"/>
     </row>
     <row r="46" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="5">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B46" s="1">
-        <v>14.41</v>
+        <v>14.39</v>
       </c>
       <c r="C46" s="6"/>
     </row>
     <row r="47" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="5">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B47" s="1">
-        <v>14.41</v>
+        <v>14.4</v>
       </c>
       <c r="C47" s="6"/>
     </row>
     <row r="48" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="5">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B48" s="1">
-        <v>14.46</v>
+        <v>14.44</v>
       </c>
       <c r="C48" s="6"/>
     </row>
@@ -958,7 +959,7 @@
         <v>210</v>
       </c>
       <c r="B49" s="1">
-        <v>14.46</v>
+        <v>14.45</v>
       </c>
       <c r="C49" s="6"/>
     </row>
@@ -967,22 +968,22 @@
         <v>211</v>
       </c>
       <c r="B50" s="1">
-        <v>14.47</v>
+        <v>14.45</v>
       </c>
       <c r="C50" s="6"/>
     </row>
     <row r="51" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="5">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B51" s="1">
-        <v>14.47</v>
+        <v>14.46</v>
       </c>
       <c r="C51" s="6"/>
     </row>
     <row r="52" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="5">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="B52" s="1">
         <v>14.48</v>
@@ -994,16 +995,16 @@
         <v>223</v>
       </c>
       <c r="B53" s="1">
-        <v>14.5</v>
+        <v>14.48</v>
       </c>
       <c r="C53" s="6"/>
     </row>
     <row r="54" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="5">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="B54" s="1">
-        <v>14.5</v>
+        <v>14.51</v>
       </c>
       <c r="C54" s="6"/>
     </row>
@@ -1012,25 +1013,25 @@
         <v>238</v>
       </c>
       <c r="B55" s="1">
-        <v>14.53</v>
+        <v>14.51</v>
       </c>
       <c r="C55" s="6"/>
     </row>
     <row r="56" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="5">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B56" s="1">
-        <v>14.54</v>
+        <v>14.52</v>
       </c>
       <c r="C56" s="6"/>
     </row>
     <row r="57" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="5">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="B57" s="1">
-        <v>14.54</v>
+        <v>14.53</v>
       </c>
       <c r="C57" s="6"/>
     </row>
@@ -1039,22 +1040,22 @@
         <v>253</v>
       </c>
       <c r="B58" s="1">
-        <v>14.56</v>
+        <v>14.54</v>
       </c>
       <c r="C58" s="6"/>
     </row>
     <row r="59" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="5">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B59" s="1">
-        <v>14.57</v>
+        <v>14.54</v>
       </c>
       <c r="C59" s="6"/>
     </row>
     <row r="60" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="5">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="B60" s="1">
         <v>14.57</v>
@@ -1063,34 +1064,34 @@
     </row>
     <row r="61" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="5">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B61" s="1">
-        <v>14.6</v>
+        <v>14.57</v>
       </c>
       <c r="C61" s="6"/>
     </row>
     <row r="62" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="5">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="B62" s="1">
-        <v>14.6</v>
+        <v>14.59</v>
       </c>
       <c r="C62" s="6"/>
     </row>
     <row r="63" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="5">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B63" s="1">
-        <v>14.62</v>
+        <v>14.59</v>
       </c>
       <c r="C63" s="6"/>
     </row>
     <row r="64" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="5">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="B64" s="1">
         <v>14.62</v>
@@ -1099,118 +1100,118 @@
     </row>
     <row r="65" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="5">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B65" s="1">
-        <v>14.66</v>
+        <v>14.62</v>
       </c>
       <c r="C65" s="6"/>
     </row>
     <row r="66" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="5">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B66" s="1">
-        <v>14.66</v>
+        <v>14.62</v>
       </c>
       <c r="C66" s="6"/>
     </row>
     <row r="67" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="5">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="B67" s="1">
-        <v>14.66</v>
+        <v>14.64</v>
       </c>
       <c r="C67" s="6"/>
     </row>
     <row r="68" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="5">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="B68" s="1">
-        <v>14.67</v>
+        <v>14.64</v>
       </c>
       <c r="C68" s="6"/>
     </row>
     <row r="69" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="5">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B69" s="1">
-        <v>14.68</v>
+        <v>14.64</v>
       </c>
       <c r="C69" s="6"/>
     </row>
     <row r="70" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="5">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="B70" s="1">
-        <v>14.68</v>
+        <v>14.66</v>
       </c>
       <c r="C70" s="6"/>
     </row>
     <row r="71" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="5">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="B71" s="1">
-        <v>14.69</v>
+        <v>14.66</v>
       </c>
       <c r="C71" s="6"/>
     </row>
     <row r="72" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="5">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="B72" s="1">
-        <v>14.71</v>
+        <v>14.67</v>
       </c>
       <c r="C72" s="6"/>
     </row>
     <row r="73" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="5">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="B73" s="1">
-        <v>14.71</v>
+        <v>14.68</v>
       </c>
       <c r="C73" s="6"/>
     </row>
     <row r="74" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="5">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B74" s="1">
-        <v>14.73</v>
+        <v>14.69</v>
       </c>
       <c r="C74" s="6"/>
     </row>
     <row r="75" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="5">
-        <v>348</v>
+        <v>363</v>
       </c>
       <c r="B75" s="1">
-        <v>14.73</v>
+        <v>14.7</v>
       </c>
       <c r="C75" s="6"/>
     </row>
     <row r="76" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="5">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="B76" s="1">
-        <v>14.75</v>
+        <v>14.71</v>
       </c>
       <c r="C76" s="6"/>
     </row>
     <row r="77" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="5">
-        <v>373</v>
+        <v>389</v>
       </c>
       <c r="B77" s="1">
-        <v>14.76</v>
+        <v>14.72</v>
       </c>
       <c r="C77" s="6"/>
     </row>
@@ -1219,553 +1220,553 @@
         <v>390</v>
       </c>
       <c r="B78" s="1">
-        <v>14.77</v>
+        <v>14.72</v>
       </c>
       <c r="C78" s="6"/>
     </row>
     <row r="79" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="5">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B79" s="1">
-        <v>14.77</v>
+        <v>14.72</v>
       </c>
       <c r="C79" s="6"/>
     </row>
     <row r="80" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="5">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B80" s="1">
-        <v>14.77</v>
+        <v>14.72</v>
       </c>
       <c r="C80" s="6"/>
     </row>
     <row r="81" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="5">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B81" s="1">
-        <v>14.78</v>
+        <v>14.73</v>
       </c>
       <c r="C81" s="6"/>
     </row>
     <row r="82" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="5">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B82" s="1">
-        <v>14.78</v>
+        <v>14.73</v>
       </c>
       <c r="C82" s="6"/>
     </row>
     <row r="83" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="5">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B83" s="1">
-        <v>14.78</v>
+        <v>14.73</v>
       </c>
       <c r="C83" s="6"/>
     </row>
     <row r="84" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="5">
-        <v>450</v>
+        <v>420</v>
       </c>
       <c r="B84" s="1">
-        <v>14.79</v>
+        <v>14.73</v>
       </c>
       <c r="C84" s="6"/>
     </row>
     <row r="85" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="5">
-        <v>481</v>
+        <v>449</v>
       </c>
       <c r="B85" s="1">
-        <v>14.79</v>
+        <v>14.73</v>
       </c>
       <c r="C85" s="6"/>
     </row>
     <row r="86" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="5">
-        <v>483</v>
+        <v>452</v>
       </c>
       <c r="B86" s="1">
-        <v>14.79</v>
+        <v>14.73</v>
       </c>
       <c r="C86" s="6"/>
     </row>
     <row r="87" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="5">
-        <v>497</v>
+        <v>480</v>
       </c>
       <c r="B87" s="1">
-        <v>14.79</v>
+        <v>14.73</v>
       </c>
       <c r="C87" s="6"/>
     </row>
     <row r="88" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="5">
-        <v>510</v>
+        <v>482</v>
       </c>
       <c r="B88" s="1">
-        <v>14.78</v>
+        <v>14.73</v>
       </c>
       <c r="C88" s="6"/>
     </row>
     <row r="89" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="5">
-        <v>539</v>
+        <v>496</v>
       </c>
       <c r="B89" s="1">
-        <v>14.76</v>
+        <v>14.73</v>
       </c>
       <c r="C89" s="6"/>
     </row>
     <row r="90" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="5">
-        <v>540</v>
+        <v>510</v>
       </c>
       <c r="B90" s="1">
-        <v>14.76</v>
+        <v>14.72</v>
       </c>
       <c r="C90" s="6"/>
     </row>
     <row r="91" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="5">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="B91" s="1">
-        <v>14.76</v>
+        <v>14.7</v>
       </c>
       <c r="C91" s="6"/>
     </row>
     <row r="92" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="5">
-        <v>572</v>
+        <v>540</v>
       </c>
       <c r="B92" s="1">
-        <v>14.74</v>
+        <v>14.69</v>
       </c>
       <c r="C92" s="6"/>
     </row>
     <row r="93" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="5">
-        <v>573</v>
+        <v>543</v>
       </c>
       <c r="B93" s="1">
-        <v>14.74</v>
+        <v>14.69</v>
       </c>
       <c r="C93" s="6"/>
     </row>
     <row r="94" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="5">
-        <v>589</v>
+        <v>571</v>
       </c>
       <c r="B94" s="1">
-        <v>14.73</v>
+        <v>14.68</v>
       </c>
       <c r="C94" s="6"/>
     </row>
     <row r="95" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="5">
-        <v>601</v>
+        <v>572</v>
       </c>
       <c r="B95" s="1">
-        <v>14.72</v>
+        <v>14.68</v>
       </c>
       <c r="C95" s="6"/>
     </row>
     <row r="96" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="5">
-        <v>602</v>
+        <v>588</v>
       </c>
       <c r="B96" s="1">
-        <v>14.72</v>
+        <v>14.67</v>
       </c>
       <c r="C96" s="6"/>
     </row>
     <row r="97" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="5">
-        <v>630</v>
+        <v>600</v>
       </c>
       <c r="B97" s="1">
-        <v>14.7</v>
+        <v>14.66</v>
       </c>
       <c r="C97" s="6"/>
     </row>
     <row r="98" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="5">
-        <v>635</v>
+        <v>601</v>
       </c>
       <c r="B98" s="1">
-        <v>14.7</v>
+        <v>14.66</v>
       </c>
       <c r="C98" s="6"/>
     </row>
     <row r="99" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="5">
-        <v>660</v>
+        <v>630</v>
       </c>
       <c r="B99" s="1">
-        <v>14.69</v>
+        <v>14.64</v>
       </c>
       <c r="C99" s="6"/>
     </row>
     <row r="100" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="5">
-        <v>665</v>
+        <v>634</v>
       </c>
       <c r="B100" s="1">
-        <v>14.68</v>
+        <v>14.64</v>
       </c>
       <c r="C100" s="6"/>
     </row>
     <row r="101" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="5">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="B101" s="1">
-        <v>14.68</v>
+        <v>14.63</v>
       </c>
       <c r="C101" s="6"/>
     </row>
     <row r="102" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="5">
-        <v>684</v>
+        <v>664</v>
       </c>
       <c r="B102" s="1">
-        <v>14.68</v>
+        <v>14.63</v>
       </c>
       <c r="C102" s="6"/>
     </row>
     <row r="103" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="5">
-        <v>691</v>
+        <v>666</v>
       </c>
       <c r="B103" s="1">
-        <v>14.67</v>
+        <v>14.62</v>
       </c>
       <c r="C103" s="6"/>
     </row>
     <row r="104" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="5">
-        <v>695</v>
+        <v>683</v>
       </c>
       <c r="B104" s="1">
-        <v>14.67</v>
+        <v>14.62</v>
       </c>
       <c r="C104" s="6"/>
     </row>
     <row r="105" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="5">
-        <v>721</v>
+        <v>690</v>
       </c>
       <c r="B105" s="1">
-        <v>14.66</v>
+        <v>14.62</v>
       </c>
       <c r="C105" s="6"/>
     </row>
     <row r="106" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="5">
-        <v>726</v>
+        <v>694</v>
       </c>
       <c r="B106" s="1">
-        <v>14.66</v>
+        <v>14.61</v>
       </c>
       <c r="C106" s="6"/>
     </row>
     <row r="107" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="5">
-        <v>728</v>
+        <v>720</v>
       </c>
       <c r="B107" s="1">
-        <v>14.66</v>
+        <v>14.61</v>
       </c>
       <c r="C107" s="6"/>
     </row>
     <row r="108" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="5">
-        <v>750</v>
+        <v>725</v>
       </c>
       <c r="B108" s="1">
-        <v>14.65</v>
+        <v>14.6</v>
       </c>
       <c r="C108" s="6"/>
     </row>
     <row r="109" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="5">
-        <v>771</v>
+        <v>727</v>
       </c>
       <c r="B109" s="1">
-        <v>14.64</v>
+        <v>14.6</v>
       </c>
       <c r="C109" s="6"/>
     </row>
     <row r="110" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="5">
-        <v>782</v>
+        <v>750</v>
       </c>
       <c r="B110" s="1">
-        <v>14.63</v>
+        <v>14.6</v>
       </c>
       <c r="C110" s="6"/>
     </row>
     <row r="111" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="5">
-        <v>810</v>
+        <v>770</v>
       </c>
       <c r="B111" s="1">
-        <v>14.61</v>
+        <v>14.59</v>
       </c>
       <c r="C111" s="6"/>
     </row>
     <row r="112" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="5">
-        <v>817</v>
+        <v>781</v>
       </c>
       <c r="B112" s="1">
-        <v>14.61</v>
+        <v>14.58</v>
       </c>
       <c r="C112" s="6"/>
     </row>
     <row r="113" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="5">
-        <v>840</v>
+        <v>810</v>
       </c>
       <c r="B113" s="1">
-        <v>14.59</v>
+        <v>14.56</v>
       </c>
       <c r="C113" s="6"/>
     </row>
     <row r="114" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A114" s="5">
-        <v>862</v>
+        <v>816</v>
       </c>
       <c r="B114" s="1">
-        <v>14.58</v>
+        <v>14.56</v>
       </c>
       <c r="C114" s="6"/>
     </row>
     <row r="115" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" s="5">
-        <v>870</v>
+        <v>840</v>
       </c>
       <c r="B115" s="1">
-        <v>14.58</v>
+        <v>14.55</v>
       </c>
       <c r="C115" s="6"/>
     </row>
     <row r="116" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" s="5">
-        <v>901</v>
+        <v>861</v>
       </c>
       <c r="B116" s="1">
-        <v>14.56</v>
+        <v>14.54</v>
       </c>
       <c r="C116" s="6"/>
     </row>
     <row r="117" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="5">
-        <v>908</v>
+        <v>872</v>
       </c>
       <c r="B117" s="1">
-        <v>14.56</v>
+        <v>14.53</v>
       </c>
       <c r="C117" s="6"/>
     </row>
     <row r="118" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="5">
-        <v>931</v>
+        <v>900</v>
       </c>
       <c r="B118" s="1">
-        <v>14.55</v>
+        <v>14.52</v>
       </c>
       <c r="C118" s="6"/>
     </row>
     <row r="119" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="5">
-        <v>954</v>
+        <v>907</v>
       </c>
       <c r="B119" s="1">
-        <v>14.54</v>
+        <v>14.52</v>
       </c>
       <c r="C119" s="6"/>
     </row>
     <row r="120" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="5">
-        <v>960</v>
+        <v>930</v>
       </c>
       <c r="B120" s="1">
-        <v>14.53</v>
+        <v>14.51</v>
       </c>
       <c r="C120" s="6"/>
     </row>
     <row r="121" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="5">
-        <v>992</v>
+        <v>953</v>
       </c>
       <c r="B121" s="1">
-        <v>14.52</v>
+        <v>14.5</v>
       </c>
       <c r="C121" s="6"/>
     </row>
     <row r="122" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" s="5">
-        <v>1000</v>
+        <v>960</v>
       </c>
       <c r="B122" s="1">
-        <v>14.52</v>
+        <v>14.49</v>
       </c>
       <c r="C122" s="6"/>
     </row>
     <row r="123" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A123" s="5">
-        <v>1020</v>
+        <v>991</v>
       </c>
       <c r="B123" s="1">
-        <v>14.51</v>
+        <v>14.48</v>
       </c>
       <c r="C123" s="6"/>
     </row>
     <row r="124" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A124" s="5">
-        <v>1048</v>
+        <v>999</v>
       </c>
       <c r="B124" s="1">
-        <v>14.49</v>
+        <v>14.48</v>
       </c>
       <c r="C124" s="6"/>
     </row>
     <row r="125" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" s="5">
-        <v>1050</v>
+        <v>1020</v>
       </c>
       <c r="B125" s="1">
-        <v>14.49</v>
+        <v>14.47</v>
       </c>
       <c r="C125" s="6"/>
     </row>
     <row r="126" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="5">
-        <v>1080</v>
+        <v>1047</v>
       </c>
       <c r="B126" s="1">
-        <v>14.48</v>
+        <v>14.46</v>
       </c>
       <c r="C126" s="6"/>
     </row>
     <row r="127" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="5">
-        <v>1091</v>
+        <v>1050</v>
       </c>
       <c r="B127" s="1">
-        <v>14.48</v>
+        <v>14.45</v>
       </c>
       <c r="C127" s="6"/>
     </row>
     <row r="128" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" s="5">
-        <v>1111</v>
+        <v>1082</v>
       </c>
       <c r="B128" s="1">
-        <v>14.47</v>
+        <v>14.45</v>
       </c>
       <c r="C128" s="6"/>
     </row>
     <row r="129" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A129" s="5">
-        <v>1139</v>
+        <v>1090</v>
       </c>
       <c r="B129" s="1">
-        <v>14.47</v>
+        <v>14.45</v>
       </c>
       <c r="C129" s="6"/>
     </row>
     <row r="130" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A130" s="5">
-        <v>1140</v>
+        <v>1110</v>
       </c>
       <c r="B130" s="1">
-        <v>14.47</v>
+        <v>14.44</v>
       </c>
       <c r="C130" s="6"/>
     </row>
     <row r="131" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" s="5">
-        <v>1170</v>
+        <v>1138</v>
       </c>
       <c r="B131" s="1">
-        <v>14.47</v>
+        <v>14.44</v>
       </c>
       <c r="C131" s="6"/>
     </row>
     <row r="132" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" s="5">
-        <v>1181</v>
+        <v>1140</v>
       </c>
       <c r="B132" s="1">
-        <v>14.47</v>
+        <v>14.44</v>
       </c>
       <c r="C132" s="6"/>
     </row>
     <row r="133" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" s="5">
-        <v>1202</v>
+        <v>1170</v>
       </c>
       <c r="B133" s="1">
-        <v>14.47</v>
+        <v>14.44</v>
       </c>
       <c r="C133" s="6"/>
     </row>
     <row r="134" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="5">
-        <v>1230</v>
+        <v>1180</v>
       </c>
       <c r="B134" s="1">
-        <v>14.47</v>
+        <v>14.44</v>
       </c>
       <c r="C134" s="6"/>
     </row>
     <row r="135" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="5">
-        <v>1273</v>
+        <v>1201</v>
       </c>
       <c r="B135" s="1">
-        <v>14.48</v>
+        <v>14.45</v>
       </c>
       <c r="C135" s="6"/>
     </row>
     <row r="136" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="5">
-        <v>1321</v>
+        <v>1229</v>
       </c>
       <c r="B136" s="1">
-        <v>14.48</v>
+        <v>14.45</v>
       </c>
       <c r="C136" s="6"/>
     </row>
     <row r="137" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A137" s="5">
-        <v>1366</v>
+        <v>1272</v>
       </c>
       <c r="B137" s="1">
-        <v>14.47</v>
+        <v>14.46</v>
       </c>
       <c r="C137" s="6"/>
     </row>
     <row r="138" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" s="5">
-        <v>1413</v>
+        <v>1320</v>
       </c>
       <c r="B138" s="1">
-        <v>14.47</v>
+        <v>14.46</v>
       </c>
       <c r="C138" s="6"/>
     </row>
     <row r="139" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A139" s="5">
-        <v>1440</v>
+        <v>1365</v>
       </c>
       <c r="B139" s="1">
         <v>14.46</v>
@@ -1774,7 +1775,7 @@
     </row>
     <row r="140" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A140" s="5">
-        <v>1457</v>
+        <v>1412</v>
       </c>
       <c r="B140" s="1">
         <v>14.46</v>
@@ -1783,7 +1784,7 @@
     </row>
     <row r="141" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A141" s="5">
-        <v>1503</v>
+        <v>1440</v>
       </c>
       <c r="B141" s="1">
         <v>14.46</v>
@@ -1792,25 +1793,25 @@
     </row>
     <row r="142" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A142" s="5">
-        <v>1546</v>
+        <v>1456</v>
       </c>
       <c r="B142" s="1">
-        <v>14.46</v>
+        <v>14.45</v>
       </c>
       <c r="C142" s="6"/>
     </row>
     <row r="143" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" s="5">
-        <v>1594</v>
+        <v>1502</v>
       </c>
       <c r="B143" s="1">
-        <v>14.46</v>
+        <v>14.45</v>
       </c>
       <c r="C143" s="6"/>
     </row>
     <row r="144" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="5">
-        <v>1624</v>
+        <v>1545</v>
       </c>
       <c r="B144" s="1">
         <v>14.46</v>
@@ -1819,25 +1820,25 @@
     </row>
     <row r="145" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A145" s="5">
-        <v>1638</v>
+        <v>1593</v>
       </c>
       <c r="B145" s="1">
-        <v>14.46</v>
+        <v>14.47</v>
       </c>
       <c r="C145" s="6"/>
     </row>
     <row r="146" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A146" s="5">
-        <v>1685</v>
+        <v>1623</v>
       </c>
       <c r="B146" s="1">
-        <v>14.46</v>
+        <v>14.47</v>
       </c>
       <c r="C146" s="6"/>
     </row>
     <row r="147" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A147" s="5">
-        <v>1731</v>
+        <v>1637</v>
       </c>
       <c r="B147" s="1">
         <v>14.47</v>
@@ -1846,930 +1847,939 @@
     </row>
     <row r="148" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A148" s="5">
-        <v>1778</v>
+        <v>1684</v>
       </c>
       <c r="B148" s="1">
-        <v>14.48</v>
+        <v>14.47</v>
       </c>
       <c r="C148" s="6"/>
     </row>
     <row r="149" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A149" s="5">
-        <v>1800</v>
+        <v>1730</v>
       </c>
       <c r="B149" s="1">
-        <v>14.47</v>
+        <v>14.48</v>
       </c>
       <c r="C149" s="6"/>
     </row>
     <row r="150" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A150" s="5">
-        <v>1822</v>
+        <v>1777</v>
       </c>
       <c r="B150" s="1">
-        <v>14.47</v>
+        <v>14.49</v>
       </c>
       <c r="C150" s="6"/>
     </row>
     <row r="151" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A151" s="5">
-        <v>1867</v>
+        <v>1800</v>
       </c>
       <c r="B151" s="1">
-        <v>14.47</v>
+        <v>14.49</v>
       </c>
       <c r="C151" s="6"/>
     </row>
     <row r="152" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A152" s="5">
-        <v>1911</v>
+        <v>1821</v>
       </c>
       <c r="B152" s="1">
-        <v>14.47</v>
+        <v>14.49</v>
       </c>
       <c r="C152" s="6"/>
     </row>
     <row r="153" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A153" s="5">
-        <v>1958</v>
+        <v>1866</v>
       </c>
       <c r="B153" s="1">
-        <v>14.47</v>
+        <v>14.5</v>
       </c>
       <c r="C153" s="6"/>
     </row>
     <row r="154" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A154" s="5">
-        <v>2003</v>
+        <v>1910</v>
       </c>
       <c r="B154" s="1">
-        <v>14.47</v>
+        <v>14.5</v>
       </c>
       <c r="C154" s="6"/>
     </row>
     <row r="155" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A155" s="5">
-        <v>2098</v>
+        <v>1957</v>
       </c>
       <c r="B155" s="1">
-        <v>14.47</v>
+        <v>14.5</v>
       </c>
       <c r="C155" s="6"/>
     </row>
     <row r="156" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A156" s="5">
-        <v>2143</v>
+        <v>2002</v>
       </c>
       <c r="B156" s="1">
-        <v>14.47</v>
+        <v>14.5</v>
       </c>
       <c r="C156" s="6"/>
     </row>
     <row r="157" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A157" s="5">
-        <v>2161</v>
+        <v>2097</v>
       </c>
       <c r="B157" s="1">
-        <v>14.47</v>
+        <v>14.51</v>
       </c>
       <c r="C157" s="6"/>
     </row>
     <row r="158" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A158" s="5">
-        <v>2189</v>
+        <v>2142</v>
       </c>
       <c r="B158" s="1">
-        <v>14.47</v>
+        <v>14.51</v>
       </c>
       <c r="C158" s="6"/>
     </row>
     <row r="159" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A159" s="5">
-        <v>2276</v>
+        <v>2160</v>
       </c>
       <c r="B159" s="1">
-        <v>14.46</v>
+        <v>14.51</v>
       </c>
       <c r="C159" s="6"/>
     </row>
     <row r="160" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A160" s="5">
-        <v>2368</v>
+        <v>2188</v>
       </c>
       <c r="B160" s="1">
-        <v>14.46</v>
+        <v>14.51</v>
       </c>
       <c r="C160" s="6"/>
     </row>
     <row r="161" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A161" s="5">
-        <v>2462</v>
+        <v>2275</v>
       </c>
       <c r="B161" s="1">
-        <v>14.46</v>
+        <v>14.52</v>
       </c>
       <c r="C161" s="6"/>
     </row>
     <row r="162" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A162" s="5">
-        <v>2508</v>
+        <v>2367</v>
       </c>
       <c r="B162" s="1">
-        <v>14.46</v>
+        <v>14.52</v>
       </c>
       <c r="C162" s="6"/>
     </row>
     <row r="163" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A163" s="5">
-        <v>2520</v>
+        <v>2461</v>
       </c>
       <c r="B163" s="1">
-        <v>14.46</v>
+        <v>14.52</v>
       </c>
       <c r="C163" s="6"/>
     </row>
     <row r="164" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A164" s="5">
-        <v>2553</v>
+        <v>2507</v>
       </c>
       <c r="B164" s="1">
-        <v>14.45</v>
+        <v>14.52</v>
       </c>
       <c r="C164" s="6"/>
     </row>
     <row r="165" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A165" s="5">
-        <v>2644</v>
+        <v>2520</v>
       </c>
       <c r="B165" s="1">
-        <v>14.44</v>
+        <v>14.52</v>
       </c>
       <c r="C165" s="6"/>
     </row>
     <row r="166" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A166" s="5">
-        <v>2735</v>
+        <v>2552</v>
       </c>
       <c r="B166" s="1">
-        <v>14.44</v>
+        <v>14.52</v>
       </c>
       <c r="C166" s="6"/>
     </row>
     <row r="167" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A167" s="5">
-        <v>2827</v>
+        <v>2643</v>
       </c>
       <c r="B167" s="1">
-        <v>14.43</v>
+        <v>14.51</v>
       </c>
       <c r="C167" s="6"/>
     </row>
     <row r="168" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A168" s="5">
-        <v>2875</v>
+        <v>2734</v>
       </c>
       <c r="B168" s="1">
-        <v>14.42</v>
+        <v>14.51</v>
       </c>
       <c r="C168" s="6"/>
     </row>
     <row r="169" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A169" s="5">
-        <v>2882</v>
+        <v>2826</v>
       </c>
       <c r="B169" s="1">
-        <v>14.42</v>
+        <v>14.5</v>
       </c>
       <c r="C169" s="6"/>
     </row>
     <row r="170" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A170" s="5">
-        <v>2918</v>
+        <v>2874</v>
       </c>
       <c r="B170" s="1">
-        <v>14.41</v>
+        <v>14.5</v>
       </c>
       <c r="C170" s="6"/>
     </row>
     <row r="171" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A171" s="5">
-        <v>3008</v>
+        <v>2881</v>
       </c>
       <c r="B171" s="1">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="C171" s="6"/>
     </row>
     <row r="172" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A172" s="5">
-        <v>3099</v>
+        <v>2917</v>
       </c>
       <c r="B172" s="1">
-        <v>14.38</v>
+        <v>14.49</v>
       </c>
       <c r="C172" s="6"/>
     </row>
     <row r="173" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A173" s="5">
-        <v>3192</v>
+        <v>3007</v>
       </c>
       <c r="B173" s="1">
-        <v>14.37</v>
+        <v>14.48</v>
       </c>
       <c r="C173" s="6"/>
     </row>
     <row r="174" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A174" s="5">
-        <v>3239</v>
+        <v>3098</v>
       </c>
       <c r="B174" s="1">
-        <v>14.36</v>
+        <v>14.47</v>
       </c>
       <c r="C174" s="6"/>
     </row>
     <row r="175" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A175" s="5">
-        <v>3240</v>
+        <v>3191</v>
       </c>
       <c r="B175" s="1">
-        <v>14.36</v>
+        <v>14.46</v>
       </c>
       <c r="C175" s="6"/>
     </row>
     <row r="176" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A176" s="5">
-        <v>3283</v>
+        <v>3238</v>
       </c>
       <c r="B176" s="1">
-        <v>14.36</v>
+        <v>14.45</v>
       </c>
       <c r="C176" s="6"/>
     </row>
     <row r="177" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A177" s="5">
-        <v>3372</v>
+        <v>3240</v>
       </c>
       <c r="B177" s="1">
-        <v>14.36</v>
+        <v>14.45</v>
       </c>
       <c r="C177" s="6"/>
     </row>
     <row r="178" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A178" s="5">
-        <v>3464</v>
+        <v>3282</v>
       </c>
       <c r="B178" s="1">
-        <v>14.36</v>
+        <v>14.45</v>
       </c>
       <c r="C178" s="6"/>
     </row>
     <row r="179" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A179" s="5">
-        <v>3557</v>
+        <v>3371</v>
       </c>
       <c r="B179" s="1">
-        <v>14.36</v>
+        <v>14.45</v>
       </c>
       <c r="C179" s="6"/>
     </row>
     <row r="180" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A180" s="5">
-        <v>3600</v>
+        <v>3463</v>
       </c>
       <c r="B180" s="1">
-        <v>14.36</v>
+        <v>14.45</v>
       </c>
       <c r="C180" s="6"/>
     </row>
     <row r="181" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A181" s="5">
-        <v>3604</v>
+        <v>3556</v>
       </c>
       <c r="B181" s="1">
-        <v>14.36</v>
+        <v>14.45</v>
       </c>
       <c r="C181" s="6"/>
     </row>
     <row r="182" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A182" s="5">
-        <v>3648</v>
+        <v>3603</v>
       </c>
       <c r="B182" s="1">
-        <v>14.35</v>
+        <v>14.45</v>
       </c>
       <c r="C182" s="6"/>
     </row>
     <row r="183" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A183" s="5">
-        <v>3737</v>
+        <v>3647</v>
       </c>
       <c r="B183" s="1">
-        <v>14.33</v>
+        <v>14.44</v>
       </c>
       <c r="C183" s="6"/>
     </row>
     <row r="184" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A184" s="5">
-        <v>3829</v>
+        <v>3736</v>
       </c>
       <c r="B184" s="1">
-        <v>14.32</v>
+        <v>14.43</v>
       </c>
       <c r="C184" s="6"/>
     </row>
     <row r="185" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A185" s="5">
-        <v>3922</v>
+        <v>3828</v>
       </c>
       <c r="B185" s="1">
-        <v>14.3</v>
+        <v>14.41</v>
       </c>
       <c r="C185" s="6"/>
     </row>
     <row r="186" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A186" s="5">
-        <v>3960</v>
+        <v>3921</v>
       </c>
       <c r="B186" s="1">
-        <v>14.29</v>
+        <v>14.39</v>
       </c>
       <c r="C186" s="6"/>
     </row>
     <row r="187" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A187" s="5">
-        <v>3969</v>
+        <v>3961</v>
       </c>
       <c r="B187" s="1">
-        <v>14.29</v>
+        <v>14.39</v>
       </c>
       <c r="C187" s="6"/>
     </row>
     <row r="188" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A188" s="5">
-        <v>4013</v>
+        <v>3968</v>
       </c>
       <c r="B188" s="1">
-        <v>14.29</v>
+        <v>14.39</v>
       </c>
       <c r="C188" s="6"/>
     </row>
     <row r="189" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A189" s="5">
-        <v>4103</v>
+        <v>4012</v>
       </c>
       <c r="B189" s="1">
-        <v>14.28</v>
+        <v>14.38</v>
       </c>
       <c r="C189" s="6"/>
     </row>
     <row r="190" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A190" s="5">
-        <v>4195</v>
+        <v>4102</v>
       </c>
       <c r="B190" s="1">
-        <v>14.26</v>
+        <v>14.37</v>
       </c>
       <c r="C190" s="6"/>
     </row>
     <row r="191" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A191" s="5">
-        <v>4289</v>
+        <v>4194</v>
       </c>
       <c r="B191" s="1">
-        <v>14.25</v>
+        <v>14.36</v>
       </c>
       <c r="C191" s="6"/>
     </row>
     <row r="192" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A192" s="5">
-        <v>4320</v>
+        <v>4288</v>
       </c>
       <c r="B192" s="1">
-        <v>14.25</v>
+        <v>14.35</v>
       </c>
       <c r="C192" s="6"/>
     </row>
     <row r="193" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A193" s="5">
-        <v>4335</v>
+        <v>4320</v>
       </c>
       <c r="B193" s="1">
-        <v>14.25</v>
+        <v>14.34</v>
       </c>
       <c r="C193" s="6"/>
     </row>
     <row r="194" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A194" s="5">
-        <v>4382</v>
+        <v>4334</v>
       </c>
       <c r="B194" s="1">
-        <v>14.24</v>
+        <v>14.34</v>
       </c>
       <c r="C194" s="6"/>
     </row>
     <row r="195" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A195" s="5">
-        <v>4468</v>
+        <v>4381</v>
       </c>
       <c r="B195" s="1">
-        <v>14.22</v>
+        <v>14.33</v>
       </c>
       <c r="C195" s="6"/>
     </row>
     <row r="196" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A196" s="5">
-        <v>4562</v>
+        <v>4467</v>
       </c>
       <c r="B196" s="1">
-        <v>14.2</v>
+        <v>14.32</v>
       </c>
       <c r="C196" s="6"/>
     </row>
     <row r="197" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A197" s="5">
-        <v>4653</v>
+        <v>4561</v>
       </c>
       <c r="B197" s="1">
-        <v>14.19</v>
+        <v>14.3</v>
       </c>
       <c r="C197" s="6"/>
     </row>
     <row r="198" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A198" s="5">
-        <v>4681</v>
+        <v>4652</v>
       </c>
       <c r="B198" s="1">
-        <v>14.18</v>
+        <v>14.28</v>
       </c>
       <c r="C198" s="6"/>
     </row>
     <row r="199" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A199" s="5">
-        <v>4702</v>
+        <v>4680</v>
       </c>
       <c r="B199" s="1">
-        <v>14.18</v>
+        <v>14.28</v>
       </c>
       <c r="C199" s="6"/>
     </row>
     <row r="200" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A200" s="5">
-        <v>4744</v>
+        <v>4701</v>
       </c>
       <c r="B200" s="1">
-        <v>14.19</v>
+        <v>14.27</v>
       </c>
       <c r="C200" s="6"/>
     </row>
     <row r="201" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A201" s="5">
-        <v>4835</v>
+        <v>4743</v>
       </c>
       <c r="B201" s="1">
-        <v>14.22</v>
+        <v>14.29</v>
       </c>
       <c r="C201" s="6"/>
     </row>
     <row r="202" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A202" s="5">
-        <v>4926</v>
+        <v>4834</v>
       </c>
       <c r="B202" s="1">
-        <v>14.25</v>
+        <v>14.31</v>
       </c>
       <c r="C202" s="6"/>
     </row>
     <row r="203" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A203" s="5">
-        <v>5018</v>
+        <v>4925</v>
       </c>
       <c r="B203" s="1">
-        <v>14.27</v>
+        <v>14.34</v>
       </c>
       <c r="C203" s="6"/>
     </row>
     <row r="204" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A204" s="5">
-        <v>5040</v>
+        <v>5017</v>
       </c>
       <c r="B204" s="1">
-        <v>14.28</v>
+        <v>14.36</v>
       </c>
       <c r="C204" s="6"/>
     </row>
     <row r="205" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A205" s="5">
-        <v>5066</v>
+        <v>5040</v>
       </c>
       <c r="B205" s="1">
-        <v>14.28</v>
+        <v>14.37</v>
       </c>
       <c r="C205" s="6"/>
     </row>
     <row r="206" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A206" s="5">
-        <v>5109</v>
+        <v>5065</v>
       </c>
       <c r="B206" s="1">
-        <v>14.27</v>
+        <v>14.38</v>
       </c>
       <c r="C206" s="6"/>
     </row>
     <row r="207" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A207" s="5">
-        <v>5199</v>
+        <v>5108</v>
       </c>
       <c r="B207" s="1">
-        <v>14.25</v>
+        <v>14.37</v>
       </c>
       <c r="C207" s="6"/>
     </row>
     <row r="208" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A208" s="5">
-        <v>5290</v>
+        <v>5198</v>
       </c>
       <c r="B208" s="1">
-        <v>14.23</v>
+        <v>14.35</v>
       </c>
       <c r="C208" s="6"/>
     </row>
     <row r="209" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A209" s="5">
-        <v>5383</v>
+        <v>5289</v>
       </c>
       <c r="B209" s="1">
-        <v>14.22</v>
+        <v>14.33</v>
       </c>
       <c r="C209" s="6"/>
     </row>
     <row r="210" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A210" s="5">
-        <v>5402</v>
+        <v>5382</v>
       </c>
       <c r="B210" s="1">
-        <v>14.21</v>
+        <v>14.31</v>
       </c>
       <c r="C210" s="6"/>
     </row>
     <row r="211" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A211" s="5">
-        <v>5430</v>
+        <v>5401</v>
       </c>
       <c r="B211" s="1">
-        <v>14.21</v>
+        <v>14.3</v>
       </c>
       <c r="C211" s="6"/>
     </row>
     <row r="212" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A212" s="5">
-        <v>5474</v>
+        <v>5429</v>
       </c>
       <c r="B212" s="1">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="C212" s="6"/>
     </row>
     <row r="213" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A213" s="5">
-        <v>5564</v>
+        <v>5473</v>
       </c>
       <c r="B213" s="1">
-        <v>14.18</v>
+        <v>14.29</v>
       </c>
       <c r="C213" s="6"/>
     </row>
     <row r="214" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A214" s="5">
-        <v>5581</v>
+        <v>5563</v>
       </c>
       <c r="B214" s="1">
-        <v>14.18</v>
+        <v>14.27</v>
       </c>
       <c r="C214" s="6"/>
     </row>
     <row r="215" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A215" s="5">
-        <v>5656</v>
+        <v>5580</v>
       </c>
       <c r="B215" s="1">
-        <v>14.16</v>
+        <v>14.27</v>
       </c>
       <c r="C215" s="6"/>
     </row>
     <row r="216" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A216" s="5">
-        <v>5749</v>
+        <v>5655</v>
       </c>
       <c r="B216" s="1">
-        <v>14.15</v>
+        <v>14.25</v>
       </c>
       <c r="C216" s="6"/>
     </row>
     <row r="217" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A217" s="5">
-        <v>5840</v>
+        <v>5748</v>
       </c>
       <c r="B217" s="1">
-        <v>14.13</v>
+        <v>14.24</v>
       </c>
       <c r="C217" s="6"/>
     </row>
     <row r="218" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A218" s="5">
-        <v>5929</v>
+        <v>5839</v>
       </c>
       <c r="B218" s="1">
-        <v>14.12</v>
+        <v>14.22</v>
       </c>
       <c r="C218" s="6"/>
     </row>
     <row r="219" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A219" s="5">
-        <v>6021</v>
+        <v>5928</v>
       </c>
       <c r="B219" s="1">
-        <v>14.1</v>
+        <v>14.21</v>
       </c>
       <c r="C219" s="6"/>
     </row>
     <row r="220" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A220" s="5">
-        <v>6116</v>
+        <v>6020</v>
       </c>
       <c r="B220" s="1">
-        <v>14.08</v>
+        <v>14.19</v>
       </c>
       <c r="C220" s="6"/>
     </row>
     <row r="221" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A221" s="5">
-        <v>6209</v>
+        <v>6115</v>
       </c>
       <c r="B221" s="1">
-        <v>14.07</v>
+        <v>14.18</v>
       </c>
       <c r="C221" s="6"/>
     </row>
     <row r="222" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A222" s="5">
-        <v>6294</v>
+        <v>6208</v>
       </c>
       <c r="B222" s="1">
-        <v>14.06</v>
+        <v>14.16</v>
       </c>
       <c r="C222" s="6"/>
     </row>
     <row r="223" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A223" s="5">
-        <v>6386</v>
+        <v>6293</v>
       </c>
       <c r="B223" s="1">
-        <v>14.04</v>
+        <v>14.15</v>
       </c>
       <c r="C223" s="6"/>
     </row>
     <row r="224" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A224" s="5">
-        <v>6480</v>
+        <v>6385</v>
       </c>
       <c r="B224" s="1">
-        <v>14.03</v>
+        <v>14.14</v>
       </c>
       <c r="C224" s="6"/>
     </row>
     <row r="225" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A225" s="5">
-        <v>6571</v>
+        <v>6479</v>
       </c>
       <c r="B225" s="1">
-        <v>14.02</v>
+        <v>14.12</v>
       </c>
       <c r="C225" s="6"/>
     </row>
     <row r="226" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A226" s="5">
-        <v>6659</v>
+        <v>6570</v>
       </c>
       <c r="B226" s="1">
-        <v>14.01</v>
+        <v>14.11</v>
       </c>
       <c r="C226" s="6"/>
     </row>
     <row r="227" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A227" s="5">
-        <v>6753</v>
+        <v>6658</v>
       </c>
       <c r="B227" s="1">
-        <v>13.99</v>
+        <v>14.1</v>
       </c>
       <c r="C227" s="6"/>
     </row>
     <row r="228" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A228" s="5">
-        <v>6844</v>
+        <v>6752</v>
       </c>
       <c r="B228" s="1">
-        <v>13.98</v>
+        <v>14.09</v>
       </c>
       <c r="C228" s="6"/>
     </row>
     <row r="229" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A229" s="5">
-        <v>6935</v>
+        <v>6843</v>
       </c>
       <c r="B229" s="1">
-        <v>13.97</v>
+        <v>14.08</v>
       </c>
       <c r="C229" s="6"/>
     </row>
     <row r="230" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A230" s="5">
-        <v>7026</v>
+        <v>6934</v>
       </c>
       <c r="B230" s="1">
-        <v>13.96</v>
+        <v>14.06</v>
       </c>
       <c r="C230" s="6"/>
     </row>
     <row r="231" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A231" s="5">
-        <v>7117</v>
+        <v>7025</v>
       </c>
       <c r="B231" s="1">
-        <v>13.95</v>
+        <v>14.05</v>
       </c>
       <c r="C231" s="6"/>
     </row>
     <row r="232" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A232" s="5">
-        <v>7201</v>
+        <v>7116</v>
       </c>
       <c r="B232" s="1">
-        <v>13.94</v>
+        <v>14.04</v>
       </c>
       <c r="C232" s="6"/>
     </row>
     <row r="233" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A233" s="5">
-        <v>7210</v>
+        <v>7200</v>
       </c>
       <c r="B233" s="1">
-        <v>13.94</v>
+        <v>14.03</v>
       </c>
       <c r="C233" s="6"/>
     </row>
     <row r="234" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A234" s="5">
-        <v>7301</v>
+        <v>7209</v>
       </c>
       <c r="B234" s="1">
-        <v>13.93</v>
+        <v>14.03</v>
       </c>
       <c r="C234" s="6"/>
     </row>
     <row r="235" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A235" s="5">
-        <v>7390</v>
+        <v>7300</v>
       </c>
       <c r="B235" s="1">
-        <v>13.92</v>
+        <v>14.02</v>
       </c>
       <c r="C235" s="6"/>
     </row>
     <row r="236" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A236" s="5">
-        <v>7482</v>
+        <v>7389</v>
       </c>
       <c r="B236" s="1">
-        <v>13.91</v>
+        <v>14.01</v>
       </c>
       <c r="C236" s="6"/>
     </row>
     <row r="237" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A237" s="5">
-        <v>7666</v>
+        <v>7481</v>
       </c>
       <c r="B237" s="1">
-        <v>13.89</v>
+        <v>14</v>
       </c>
       <c r="C237" s="6"/>
     </row>
     <row r="238" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A238" s="5">
-        <v>7847</v>
+        <v>7665</v>
       </c>
       <c r="B238" s="1">
-        <v>13.87</v>
+        <v>13.98</v>
       </c>
       <c r="C238" s="6"/>
     </row>
     <row r="239" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A239" s="5">
-        <v>8031</v>
+        <v>7846</v>
       </c>
       <c r="B239" s="1">
-        <v>13.86</v>
+        <v>13.97</v>
       </c>
       <c r="C239" s="6"/>
     </row>
     <row r="240" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A240" s="5">
-        <v>8212</v>
+        <v>8030</v>
       </c>
       <c r="B240" s="1">
-        <v>13.84</v>
+        <v>13.95</v>
       </c>
       <c r="C240" s="6"/>
     </row>
     <row r="241" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A241" s="5">
-        <v>8400</v>
+        <v>8211</v>
       </c>
       <c r="B241" s="1">
-        <v>13.82</v>
+        <v>13.93</v>
       </c>
       <c r="C241" s="6"/>
     </row>
     <row r="242" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A242" s="5">
-        <v>8580</v>
+        <v>8399</v>
       </c>
       <c r="B242" s="1">
-        <v>13.81</v>
+        <v>13.92</v>
       </c>
       <c r="C242" s="6"/>
     </row>
     <row r="243" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A243" s="5">
-        <v>8762</v>
+        <v>8579</v>
       </c>
       <c r="B243" s="1">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="C243" s="6"/>
     </row>
     <row r="244" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A244" s="5">
-        <v>8944</v>
+        <v>8761</v>
       </c>
       <c r="B244" s="1">
-        <v>13.78</v>
+        <v>13.89</v>
       </c>
       <c r="C244" s="6"/>
     </row>
     <row r="245" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A245" s="5">
-        <v>9000</v>
+        <v>8943</v>
       </c>
       <c r="B245" s="1">
-        <v>13.78</v>
+        <v>13.88</v>
       </c>
       <c r="C245" s="6"/>
     </row>
     <row r="246" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A246" s="5">
-        <v>9127</v>
+        <v>9001</v>
       </c>
       <c r="B246" s="1">
-        <v>13.77</v>
+        <v>13.87</v>
       </c>
       <c r="C246" s="6"/>
     </row>
     <row r="247" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A247" s="5">
-        <v>9308</v>
+        <v>9126</v>
       </c>
       <c r="B247" s="1">
-        <v>13.76</v>
+        <v>13.86</v>
       </c>
       <c r="C247" s="6"/>
     </row>
     <row r="248" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A248" s="5">
-        <v>10800</v>
+        <v>9307</v>
       </c>
       <c r="B248" s="1">
-        <v>13.67</v>
+        <v>13.85</v>
       </c>
       <c r="C248" s="6"/>
     </row>
     <row r="249" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A249" s="5">
-        <v>11044</v>
+        <v>10800</v>
       </c>
       <c r="B249" s="1">
-        <v>13.66</v>
+        <v>13.76</v>
       </c>
       <c r="C249" s="6"/>
     </row>
     <row r="250" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A250" s="5">
-        <v>12962</v>
+        <v>11043</v>
       </c>
       <c r="B250" s="1">
-        <v>13.58</v>
+        <v>13.75</v>
       </c>
       <c r="C250" s="6"/>
+    </row>
+    <row r="251" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A251" s="5">
+        <v>12961</v>
+      </c>
+      <c r="B251" s="1">
+        <v>13.67</v>
+      </c>
+      <c r="C251" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
